--- a/content/data/adpc/pk_spec.xlsx
+++ b/content/data/adpc/pk_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__transfer\admiral_test\end_to_end_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CF2DD-0A56-499F-974D-C47E2C0B76FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA87606F-79B4-4BD3-932E-565B47A05BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10995" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Dictionaries!$A$1:$E$1</definedName>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="548">
   <si>
     <t>Attribute</t>
   </si>
@@ -1679,6 +1679,33 @@
   <si>
     <t>Project Identifier (N)</t>
   </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CDISCPILOT01</t>
+  </si>
+  <si>
+    <t>ARMN</t>
+  </si>
 </sst>
 </file>
 
@@ -1696,11 +1723,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1729,7 +1758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1744,12 +1773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1771,7 +1794,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1814,15 +1837,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1831,6 +1845,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,7 +2263,7 @@
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2233,7 +2271,7 @@
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2241,7 +2279,7 @@
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2365,21 +2403,21 @@
       <c r="B2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>392</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>394</v>
       </c>
       <c r="H2"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>395</v>
       </c>
     </row>
@@ -2390,21 +2428,21 @@
       <c r="B3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>392</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>394</v>
       </c>
       <c r="H3"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>395</v>
       </c>
     </row>
@@ -2482,13 +2520,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O191" sqref="O191"/>
+      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,258 +2600,258 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="17">
         <v>21</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="E3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="17">
         <v>5</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="17">
         <v>30</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="20">
-        <v>8</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="E5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="17">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="20">
-        <v>8</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="F7" s="17">
+        <v>8</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="17">
         <v>10</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="17">
         <v>20</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="E10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="17">
         <v>60</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C12" t="s">
@@ -2831,11 +2870,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C13" t="s">
@@ -2851,11 +2890,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="14" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C14" t="s">
@@ -2889,11 +2928,11 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C15" t="s">
@@ -2915,11 +2954,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C16" t="s">
@@ -2941,11 +2980,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C17" t="s">
@@ -2967,11 +3006,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C18" t="s">
@@ -2993,11 +3032,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C19" t="s">
@@ -3029,11 +3068,11 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="20" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C20" t="s">
@@ -3065,11 +3104,11 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C21" t="s">
@@ -3101,409 +3140,409 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="20">
+      <c r="E23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="17">
         <v>200</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="20">
+      <c r="E24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="17">
         <v>20</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="20">
+      <c r="E25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="17">
         <v>200</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="E26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="17">
         <v>20</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="20">
-        <v>8</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="F27" s="17">
+        <v>8</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="28" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="20">
+      <c r="E28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="17">
         <v>40</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+    <row r="29" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="20">
+      <c r="E29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="17">
         <v>40</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="30" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="20">
-        <v>8</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="F30" s="17">
+        <v>8</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+    <row r="31" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="20">
-        <v>8</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="F31" s="17">
+        <v>8</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+    <row r="32" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="20">
+      <c r="E32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+    <row r="33" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="E33" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="34" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="20">
-        <v>8</v>
-      </c>
-      <c r="H34" s="20" t="s">
+      <c r="F34" s="17">
+        <v>8</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+    <row r="35" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="20">
-        <v>8</v>
-      </c>
-      <c r="H35" s="20" t="s">
+      <c r="F35" s="17">
+        <v>8</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="36" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E36" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="17">
         <v>2</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="37" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="20">
+      <c r="E37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="17">
         <v>19</v>
       </c>
       <c r="H37"/>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+    <row r="38" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="20">
-        <v>8</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="F38" s="17">
+        <v>8</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+    <row r="39" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C39" t="s">
@@ -3519,77 +3558,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+    <row r="40" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="20">
+      <c r="E40" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="17">
         <v>80</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+    <row r="41" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="20">
-        <v>8</v>
-      </c>
-      <c r="K41" s="20" t="s">
+      <c r="F41" s="17">
+        <v>8</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+    <row r="42" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="F42" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C43" t="s">
@@ -3605,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="G43"/>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="17" t="s">
         <v>205</v>
       </c>
       <c r="I43"/>
@@ -3621,186 +3660,186 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+    <row r="44" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+    <row r="45" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="20">
+      <c r="E45" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+    <row r="46" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+    <row r="47" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="20">
+      <c r="E47" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+    <row r="48" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="20">
-        <v>8</v>
-      </c>
-      <c r="H48" s="20" t="s">
+      <c r="F48" s="17">
+        <v>8</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+    <row r="49" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="20">
-        <v>8</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="F49" s="17">
+        <v>8</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+    <row r="50" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="20">
-        <v>8</v>
-      </c>
-      <c r="H50" s="20" t="s">
+      <c r="F50" s="17">
+        <v>8</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+    <row r="51" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="20">
+      <c r="E51" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="17">
         <v>200</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+    <row r="52" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C52" t="s">
@@ -3816,31 +3855,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+    <row r="53" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="F53" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C54" t="s">
@@ -3856,349 +3895,349 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+    <row r="55" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="F55" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="F56" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
+      <c r="F57" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F58" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
+      <c r="F58" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
+      <c r="F59" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="20" t="s">
+      <c r="B60" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="E60" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
+      <c r="E61" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="20" t="s">
+      <c r="B62" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+      <c r="F62" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="F63" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="20">
+      <c r="E64" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+    <row r="65" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="20">
-        <v>8</v>
-      </c>
-      <c r="H65" s="20" t="s">
+      <c r="F65" s="17">
+        <v>8</v>
+      </c>
+      <c r="H65" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
+    <row r="66" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="20" t="s">
+      <c r="B66" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="20">
-        <v>8</v>
-      </c>
-      <c r="H66" s="20" t="s">
+      <c r="F66" s="17">
+        <v>8</v>
+      </c>
+      <c r="H66" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
+    <row r="67" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F67" s="20">
-        <v>8</v>
-      </c>
-      <c r="H67" s="20" t="s">
+      <c r="F67" s="17">
+        <v>8</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+    <row r="68" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="20">
-        <v>8</v>
-      </c>
-      <c r="H68" s="20" t="s">
+      <c r="F68" s="17">
+        <v>8</v>
+      </c>
+      <c r="H68" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
+    <row r="69" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="20" t="s">
+      <c r="B69" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="20">
-        <v>8</v>
-      </c>
-      <c r="H69" s="20" t="s">
+      <c r="F69" s="17">
+        <v>8</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+    <row r="70" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="20" t="s">
+      <c r="B70" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F70" s="20">
-        <v>8</v>
-      </c>
-      <c r="H70" s="20" t="s">
+      <c r="F70" s="17">
+        <v>8</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+    <row r="71" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C71" t="s">
@@ -4214,11 +4253,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+    <row r="72" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C72" t="s">
@@ -4234,11 +4273,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
+    <row r="73" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C73" t="s">
@@ -4254,11 +4293,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
+    <row r="74" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C74" t="s">
@@ -4274,31 +4313,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
+    <row r="75" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="20">
+      <c r="E75" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
+    <row r="76" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C76" t="s">
@@ -4313,15 +4352,15 @@
       <c r="F76">
         <v>8</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+    <row r="77" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C77" t="s">
@@ -4340,31 +4379,31 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
+    <row r="78" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="20" t="s">
+      <c r="B78" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="E78" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="20">
+      <c r="E78" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
+    <row r="79" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C79" t="s">
@@ -4379,15 +4418,15 @@
       <c r="F79">
         <v>8</v>
       </c>
-      <c r="H79" s="20" t="s">
+      <c r="H79" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
+    <row r="80" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C80" t="s">
@@ -4403,31 +4442,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
+    <row r="81" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E81" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="20">
+      <c r="E81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+    <row r="82" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C82" t="s">
@@ -4443,11 +4482,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
+    <row r="83" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C83" t="s">
@@ -4463,11 +4502,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+    <row r="84" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C84" t="s">
@@ -4483,11 +4522,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
+    <row r="85" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C85" t="s">
@@ -4503,11 +4542,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20">
+    <row r="86" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C86" t="s">
@@ -4523,11 +4562,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
+    <row r="87" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C87" t="s">
@@ -4543,31 +4582,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+    <row r="88" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" s="20" t="s">
+      <c r="B88" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="20">
+      <c r="E88" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
+    <row r="89" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C89" t="s">
@@ -4583,11 +4622,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20">
+    <row r="90" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C90" t="s">
@@ -4603,689 +4642,689 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
+    <row r="91" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="20" t="s">
+      <c r="B91" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E91" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
+      <c r="E91" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="20" t="s">
+      <c r="B92" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E92" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="20">
+      <c r="E92" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
+    <row r="93" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="20" t="s">
+      <c r="B93" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E93" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" s="20">
+      <c r="E93" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
+    <row r="94" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="20" t="s">
+      <c r="B94" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F94" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20">
+      <c r="F94" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="20" t="s">
+      <c r="B95" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E95" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F95" s="20">
+      <c r="E95" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
+    <row r="96" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="20" t="s">
+      <c r="B96" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="20">
+      <c r="E96" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
+    <row r="97" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="20" t="s">
+      <c r="B97" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F97" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
+      <c r="F97" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="20" t="s">
+      <c r="B98" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F98" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20">
+      <c r="F98" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="20" t="s">
+      <c r="B99" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="20">
+      <c r="E99" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+    <row r="100" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100" s="20" t="s">
+      <c r="B100" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="20">
+      <c r="E100" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
+    <row r="101" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" s="20" t="s">
+      <c r="B101" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
+      <c r="F101" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="20" t="s">
+      <c r="B102" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E102" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="20">
+      <c r="E102" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
+    <row r="103" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C103" s="20" t="s">
+      <c r="B103" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
+      <c r="F103" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="20" t="s">
+      <c r="B104" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="E104" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" s="20">
+      <c r="E104" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+    <row r="105" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E105" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" s="20">
+      <c r="E105" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
+    <row r="106" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17">
         <v>105</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="20" t="s">
+      <c r="B106" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="E106" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" s="20">
+      <c r="E106" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
+    <row r="107" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
         <v>106</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="20" t="s">
+      <c r="B107" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F107" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
+      <c r="F107" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17">
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" s="20" t="s">
+      <c r="B108" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="20">
-        <v>8</v>
-      </c>
-      <c r="H108" s="20" t="s">
+      <c r="F108" s="17">
+        <v>8</v>
+      </c>
+      <c r="H108" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
-        <v>108</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="20" t="s">
+    <row r="109" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F109" s="20">
-        <v>8</v>
-      </c>
-      <c r="H109" s="20" t="s">
+      <c r="F109" s="17">
+        <v>8</v>
+      </c>
+      <c r="H109" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
+    <row r="110" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17">
         <v>109</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="20" t="s">
+      <c r="B110" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F110" s="20">
-        <v>8</v>
-      </c>
-      <c r="H110" s="20" t="s">
+      <c r="F110" s="17">
+        <v>8</v>
+      </c>
+      <c r="H110" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
+    <row r="111" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17">
         <v>110</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="20" t="s">
+      <c r="B111" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F111" s="20">
-        <v>8</v>
-      </c>
-      <c r="H111" s="20" t="s">
+      <c r="F111" s="17">
+        <v>8</v>
+      </c>
+      <c r="H111" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20">
+    <row r="112" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17">
         <v>111</v>
       </c>
-      <c r="B112" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" s="20" t="s">
+      <c r="B112" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="20">
-        <v>8</v>
-      </c>
-      <c r="H112" s="20" t="s">
+      <c r="F112" s="17">
+        <v>8</v>
+      </c>
+      <c r="H112" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
+    <row r="113" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17">
         <v>112</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="20" t="s">
+      <c r="B113" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F113" s="20">
-        <v>8</v>
-      </c>
-      <c r="H113" s="20" t="s">
+      <c r="F113" s="17">
+        <v>8</v>
+      </c>
+      <c r="H113" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20">
+    <row r="114" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17">
         <v>113</v>
       </c>
-      <c r="B114" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="20" t="s">
+      <c r="B114" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F114" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
+      <c r="F114" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="17">
         <v>114</v>
       </c>
-      <c r="B115" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="20" t="s">
+      <c r="B115" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F115" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="F115" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17">
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="20" t="s">
+      <c r="B116" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F116" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
+      <c r="F116" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
         <v>116</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="20" t="s">
+      <c r="B117" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F117" s="20">
+      <c r="E117" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F117" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20">
+    <row r="118" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
         <v>117</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="20" t="s">
+      <c r="B118" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F118" s="20">
+      <c r="E118" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
+    <row r="119" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17">
         <v>118</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" s="20" t="s">
+      <c r="B119" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="E119" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F119" s="20">
+      <c r="E119" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20">
+    <row r="120" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17">
         <v>119</v>
       </c>
-      <c r="B120" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" s="20" t="s">
+      <c r="B120" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F120" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
+      <c r="F120" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="17">
         <v>120</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" s="20" t="s">
+      <c r="B121" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E121" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F121" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20">
+      <c r="E121" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17">
         <v>121</v>
       </c>
-      <c r="B122" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C122" s="20" t="s">
+      <c r="B122" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E122" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F122" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
+      <c r="E122" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17">
         <v>122</v>
       </c>
-      <c r="B123" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C123" s="20" t="s">
+      <c r="B123" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="20">
+      <c r="A124" s="17">
         <v>1</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C124" t="s">
@@ -5311,10 +5350,10 @@
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="20">
+      <c r="A125" s="17">
         <v>2</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C125" t="s">
@@ -5340,10 +5379,10 @@
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="20">
+      <c r="A126" s="17">
         <v>3</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C126" t="s">
@@ -5369,10 +5408,10 @@
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="20">
+      <c r="A127" s="17">
         <v>4</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C127" t="s">
@@ -5389,7 +5428,9 @@
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
+      <c r="J127" s="16" t="s">
+        <v>403</v>
+      </c>
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
@@ -5398,10 +5439,10 @@
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="20">
+      <c r="A128" s="17">
         <v>5</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C128" t="s">
@@ -5427,10 +5468,10 @@
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="20">
+      <c r="A129" s="17">
         <v>6</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C129" t="s">
@@ -5456,10 +5497,10 @@
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="20">
+      <c r="A130" s="17">
         <v>7</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C130" t="s">
@@ -5485,10 +5526,10 @@
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
-        <v>8</v>
-      </c>
-      <c r="B131" s="19" t="s">
+      <c r="A131" s="17">
+        <v>8</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C131" t="s">
@@ -5514,10 +5555,10 @@
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="20">
+      <c r="A132" s="17">
         <v>9</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C132" t="s">
@@ -5543,10 +5584,10 @@
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
+      <c r="A133" s="17">
         <v>10</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C133" t="s">
@@ -5572,10 +5613,10 @@
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="20">
+      <c r="A134" s="17">
         <v>11</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C134" t="s">
@@ -5601,10 +5642,10 @@
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="20">
+      <c r="A135" s="17">
         <v>12</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C135" t="s">
@@ -5630,10 +5671,10 @@
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
+      <c r="A136" s="17">
         <v>13</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C136" t="s">
@@ -5659,10 +5700,10 @@
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
+      <c r="A137" s="17">
         <v>14</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C137" t="s">
@@ -5688,10 +5729,10 @@
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
+      <c r="A138" s="17">
         <v>15</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C138" t="s">
@@ -5717,10 +5758,10 @@
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+      <c r="A139" s="17">
         <v>16</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C139" t="s">
@@ -5746,10 +5787,10 @@
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="20">
+      <c r="A140" s="17">
         <v>17</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C140" t="s">
@@ -5775,10 +5816,10 @@
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="20">
+      <c r="A141" s="17">
         <v>18</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C141" t="s">
@@ -5804,10 +5845,10 @@
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="20">
+      <c r="A142" s="17">
         <v>19</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C142" t="s">
@@ -5833,10 +5874,10 @@
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="20">
+      <c r="A143" s="17">
         <v>20</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C143" t="s">
@@ -5862,10 +5903,10 @@
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="20">
+      <c r="A144" s="17">
         <v>21</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C144" t="s">
@@ -5891,10 +5932,10 @@
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
+      <c r="A145" s="17">
         <v>22</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C145" t="s">
@@ -5920,10 +5961,10 @@
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="20">
+      <c r="A146" s="17">
         <v>23</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C146" t="s">
@@ -5949,10 +5990,10 @@
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="20">
+      <c r="A147" s="17">
         <v>24</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C147" t="s">
@@ -5978,10 +6019,10 @@
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="20">
+      <c r="A148" s="17">
         <v>25</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C148" t="s">
@@ -6007,10 +6048,10 @@
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
+      <c r="A149" s="17">
         <v>26</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C149" t="s">
@@ -6036,10 +6077,10 @@
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="20">
+      <c r="A150" s="17">
         <v>27</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C150" t="s">
@@ -6065,10 +6106,10 @@
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="20">
+      <c r="A151" s="17">
         <v>28</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B151" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C151" t="s">
@@ -6094,10 +6135,10 @@
       <c r="P151" s="10"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="20">
+      <c r="A152" s="17">
         <v>29</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C152" t="s">
@@ -6123,10 +6164,10 @@
       <c r="P152" s="10"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="20">
+      <c r="A153" s="17">
         <v>30</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C153" t="s">
@@ -6152,10 +6193,10 @@
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="20">
+      <c r="A154" s="17">
         <v>31</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C154" t="s">
@@ -6181,10 +6222,10 @@
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="20">
+      <c r="A155" s="17">
         <v>32</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C155" t="s">
@@ -6210,10 +6251,10 @@
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="20">
+      <c r="A156" s="17">
         <v>33</v>
       </c>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C156" t="s">
@@ -6239,10 +6280,10 @@
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="20">
+      <c r="A157" s="17">
         <v>34</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C157" t="s">
@@ -6268,10 +6309,10 @@
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="20">
+      <c r="A158" s="17">
         <v>35</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C158" t="s">
@@ -6297,10 +6338,10 @@
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="20">
+      <c r="A159" s="17">
         <v>36</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C159" t="s">
@@ -6317,10 +6358,10 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
+      <c r="A160" s="17">
         <v>37</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C160" t="s">
@@ -6336,11 +6377,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="20">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="17">
         <v>38</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C161" t="s">
@@ -6356,11 +6397,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="20">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="17">
         <v>39</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C162" t="s">
@@ -6376,11 +6417,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="20">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="17">
         <v>40</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C163" t="s">
@@ -6396,11 +6437,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="20">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="17">
         <v>41</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C164" t="s">
@@ -6416,11 +6457,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="20">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="17">
         <v>42</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C165" t="s">
@@ -6436,11 +6477,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="20">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="17">
         <v>43</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C166" t="s">
@@ -6456,11 +6497,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="20">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="17">
         <v>44</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C167" t="s">
@@ -6476,11 +6517,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="20">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="17">
         <v>45</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C168" t="s">
@@ -6496,11 +6537,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="20">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="17">
         <v>46</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C169" t="s">
@@ -6516,11 +6557,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="20">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="17">
         <v>47</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C170" t="s">
@@ -6536,11 +6577,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="20">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="17">
         <v>48</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C171" t="s">
@@ -6556,11 +6597,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="20">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="17">
         <v>49</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C172" t="s">
@@ -6575,12 +6616,15 @@
       <c r="F172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="20">
+      <c r="J172" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="17">
         <v>50</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C173" t="s">
@@ -6596,11 +6640,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="17">
         <v>51</v>
       </c>
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C174" t="s">
@@ -6615,12 +6659,15 @@
       <c r="F174">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="20">
+      <c r="J174" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="17">
         <v>52</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B175" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C175" t="s">
@@ -6636,11 +6683,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="20">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
         <v>53</v>
       </c>
-      <c r="B176" s="19" t="s">
+      <c r="B176" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C176" t="s">
@@ -6657,10 +6704,10 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="20">
+      <c r="A177" s="17">
         <v>54</v>
       </c>
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C177" t="s">
@@ -6675,12 +6722,15 @@
       <c r="F177">
         <v>8</v>
       </c>
+      <c r="J177" s="15" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="20">
+      <c r="A178" s="17">
         <v>55</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C178" t="s">
@@ -6695,12 +6745,15 @@
       <c r="F178">
         <v>40</v>
       </c>
+      <c r="J178" s="15" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="20">
+      <c r="A179" s="17">
         <v>56</v>
       </c>
-      <c r="B179" s="19" t="s">
+      <c r="B179" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C179" t="s">
@@ -6717,10 +6770,10 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="20">
+      <c r="A180" s="17">
         <v>57</v>
       </c>
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C180" t="s">
@@ -6737,10 +6790,10 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
+      <c r="A181" s="17">
         <v>58</v>
       </c>
-      <c r="B181" s="19" t="s">
+      <c r="B181" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C181" t="s">
@@ -6757,10 +6810,10 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="20">
+      <c r="A182" s="17">
         <v>59</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C182" t="s">
@@ -6777,10 +6830,10 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="20">
+      <c r="A183" s="17">
         <v>60</v>
       </c>
-      <c r="B183" s="19" t="s">
+      <c r="B183" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C183" t="s">
@@ -6797,10 +6850,10 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="20">
+      <c r="A184" s="17">
         <v>61</v>
       </c>
-      <c r="B184" s="19" t="s">
+      <c r="B184" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C184" t="s">
@@ -6817,10 +6870,10 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="20">
+      <c r="A185" s="17">
         <v>62</v>
       </c>
-      <c r="B185" s="19" t="s">
+      <c r="B185" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C185" t="s">
@@ -6837,10 +6890,10 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="20">
+      <c r="A186" s="17">
         <v>63</v>
       </c>
-      <c r="B186" s="19" t="s">
+      <c r="B186" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C186" t="s">
@@ -6857,10 +6910,10 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="20">
+      <c r="A187" s="17">
         <v>64</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C187" t="s">
@@ -6880,10 +6933,10 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="20">
+      <c r="A188" s="17">
         <v>65</v>
       </c>
-      <c r="B188" s="19" t="s">
+      <c r="B188" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C188" t="s">
@@ -6898,12 +6951,15 @@
       <c r="F188">
         <v>8</v>
       </c>
+      <c r="J188" s="15" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="20">
+      <c r="A189" s="17">
         <v>66</v>
       </c>
-      <c r="B189" s="19" t="s">
+      <c r="B189" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
@@ -6923,10 +6979,10 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="20">
+      <c r="A190" s="17">
         <v>67</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C190" t="s">
@@ -6941,12 +6997,15 @@
       <c r="F190">
         <v>8</v>
       </c>
+      <c r="J190" s="15" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="20">
+      <c r="A191" s="17">
         <v>68</v>
       </c>
-      <c r="B191" s="19" t="s">
+      <c r="B191" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C191" t="s">
@@ -6963,10 +7022,10 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="20">
+      <c r="A192" s="17">
         <v>69</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B192" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C192" t="s">
@@ -6982,11 +7041,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="20">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="17">
         <v>70</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C193" t="s">
@@ -7001,12 +7060,15 @@
       <c r="F193">
         <v>100</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="20">
+      <c r="J193" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="17">
         <v>71</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C194" t="s">
@@ -7021,12 +7083,15 @@
       <c r="F194">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="20">
+      <c r="J194" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="17">
         <v>72</v>
       </c>
-      <c r="B195" s="19" t="s">
+      <c r="B195" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C195" t="s">
@@ -7042,11 +7107,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="20">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="17">
         <v>73</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C196" t="s">
@@ -7062,11 +7127,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="20">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="17">
         <v>74</v>
       </c>
-      <c r="B197" s="19" t="s">
+      <c r="B197" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C197" t="s">
@@ -7081,12 +7146,15 @@
       <c r="F197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="20">
+      <c r="J197" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="17">
         <v>75</v>
       </c>
-      <c r="B198" s="19" t="s">
+      <c r="B198" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C198" t="s">
@@ -7101,12 +7169,15 @@
       <c r="F198">
         <v>100</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="20">
+      <c r="J198" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="17">
         <v>76</v>
       </c>
-      <c r="B199" s="19" t="s">
+      <c r="B199" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C199" t="s">
@@ -7121,12 +7192,15 @@
       <c r="F199">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="20">
+      <c r="J199" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="17">
         <v>77</v>
       </c>
-      <c r="B200" s="19" t="s">
+      <c r="B200" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C200" t="s">
@@ -7142,11 +7216,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="20">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="17">
         <v>78</v>
       </c>
-      <c r="B201" s="19" t="s">
+      <c r="B201" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C201" t="s">
@@ -7162,11 +7236,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="17">
         <v>79</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C202" t="s">
@@ -7182,11 +7256,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="20">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="17">
         <v>80</v>
       </c>
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C203" t="s">
@@ -7202,11 +7276,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="20">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="17">
         <v>81</v>
       </c>
-      <c r="B204" s="19" t="s">
+      <c r="B204" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C204" t="s">
@@ -7222,11 +7296,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="20">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="17">
         <v>82</v>
       </c>
-      <c r="B205" s="19" t="s">
+      <c r="B205" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C205" t="s">
@@ -7242,128 +7316,134 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="17"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="17"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="17"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="A209" s="17"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+      <c r="A210" s="17"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+      <c r="A211" s="17"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+      <c r="A212" s="17"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+      <c r="A213" s="17"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
+      <c r="A214" s="17"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+      <c r="A215" s="17"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+      <c r="A216" s="17"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+      <c r="A217" s="17"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+      <c r="A218" s="17"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+      <c r="A219" s="17"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+      <c r="A220" s="17"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+      <c r="A221" s="17"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+      <c r="A222" s="17"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+      <c r="A223" s="17"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+      <c r="A224" s="17"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+      <c r="A225" s="17"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+      <c r="A226" s="17"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+      <c r="A227" s="17"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
+      <c r="A228" s="17"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+      <c r="A229" s="17"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+      <c r="A230" s="17"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+      <c r="A231" s="17"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+      <c r="A232" s="17"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+      <c r="A233" s="17"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
+      <c r="A234" s="17"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
+      <c r="A235" s="17"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
+      <c r="A236" s="17"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
+      <c r="A237" s="17"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
+      <c r="A238" s="17"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
+      <c r="A239" s="17"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
+      <c r="A240" s="17"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
+      <c r="A241" s="17"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
+      <c r="A242" s="17"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
+      <c r="A243" s="17"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
+      <c r="A244" s="17"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
+      <c r="A245" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P205" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P205" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ADPPK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7495,13 +7575,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,10 +7594,12 @@
     <col min="6" max="6" width="26.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="10" width="20.7109375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -7543,7 +7625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -7569,7 +7651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -7591,7 +7673,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -7613,7 +7695,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -7635,7 +7717,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -7657,102 +7739,102 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>108</v>
+      <c r="D7" s="23" t="s">
+        <v>405</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>130</v>
+      <c r="F7" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>108</v>
+      <c r="D8" s="23" t="s">
+        <v>405</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>131</v>
+      <c r="F8" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
-        <v>108</v>
+      <c r="D9" s="23" t="s">
+        <v>405</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>132</v>
+      <c r="F9" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
         <v>108</v>
       </c>
@@ -7760,289 +7842,279 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>489</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="F15" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>489</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>112</v>
+        <v>489</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>491</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
+      <c r="E22" s="2">
+        <v>4</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
         <v>108</v>
       </c>
@@ -8050,352 +8122,959 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>166</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>110</v>
+        <v>519</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>110</v>
+        <v>521</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D43" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="14">
         <v>1</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G43" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="14">
         <v>2</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F44" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G44" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D45" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="14">
         <v>3</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F45" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D46" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="14">
         <v>4</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H46" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" s="14">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E50" s="14">
+        <v>4</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="14">
         <v>1</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F51" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="14">
         <v>2</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F52" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G52" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H52" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D53" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="14">
         <v>3</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G53" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="14">
+        <v>2</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E56" s="14">
+        <v>3</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D57" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="14">
         <v>1</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F57" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G57" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D58" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="14">
         <v>2</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F58" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G58" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D59" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="14">
         <v>1</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F59" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
+  <autoFilter ref="A1:H59" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
